--- a/agmo_myfarm/data_file/AGMO_Dataset4_output.xlsx
+++ b/agmo_myfarm/data_file/AGMO_Dataset4_output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songseung-u/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songseung-u/Downloads/AGMO_Dataset_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1E0F82-DCBA-D647-B9F9-4CAB598BCEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19761E6E-F2DC-BE4E-9657-043EF6EB1C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E3FC4975-BEC3-504D-87F5-908DE7385A2A}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39825F8E-1820-D342-A295-4E2D80E3B2A7}">
   <dimension ref="A1:L442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="I151" sqref="I151"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>-2.2357166999999998</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>-0.98280520000000005</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.81886720000000002</v>
+        <v>-46</v>
       </c>
       <c r="J25">
         <v>-1.0314200000000001E-2</v>
